--- a/docs/code line tracker.xlsx
+++ b/docs/code line tracker.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cs673\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="8"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Code lines tracker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +60,26 @@
     <t>Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -80,7 +88,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,7 +128,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,12 +136,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,14 +436,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -460,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -470,7 +481,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -480,7 +491,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -490,7 +501,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -500,7 +511,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -510,7 +521,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -520,7 +531,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -530,7 +541,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -540,7 +551,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -550,7 +561,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -560,7 +571,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -570,7 +581,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -590,14 +601,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -625,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -635,7 +646,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -645,7 +656,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -655,7 +666,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -665,7 +676,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -675,7 +686,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -685,7 +696,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -695,7 +706,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -705,7 +716,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -715,7 +726,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -725,7 +736,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -735,7 +746,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -755,14 +766,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -790,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -800,7 +811,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -810,7 +821,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -820,7 +831,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -830,7 +841,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -840,7 +851,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -850,7 +861,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -860,7 +871,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -870,7 +881,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -880,7 +891,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -890,7 +901,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -900,7 +911,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -920,14 +931,14 @@
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -965,7 +976,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -975,7 +986,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -985,7 +996,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -995,7 +1006,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1005,7 +1016,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1015,7 +1026,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1025,7 +1036,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1035,7 +1046,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1045,7 +1056,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1055,7 +1066,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1065,7 +1076,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1085,14 +1096,14 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1130,7 +1141,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1140,7 +1151,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1150,7 +1161,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1160,7 +1171,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1170,7 +1181,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1180,7 +1191,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1190,7 +1201,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1200,7 +1211,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1210,7 +1221,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1220,7 +1231,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1230,7 +1241,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1250,14 +1261,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1295,7 +1306,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1305,7 +1316,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1315,7 +1326,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1325,7 +1336,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1335,7 +1346,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1345,7 +1356,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1355,7 +1366,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1365,7 +1376,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1375,7 +1386,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1385,7 +1396,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1395,7 +1406,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1415,14 +1426,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1460,7 +1471,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1481,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1480,7 +1491,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1490,7 +1501,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1500,7 +1511,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1510,7 +1521,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1520,7 +1531,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1530,7 +1541,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1540,7 +1551,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1550,7 +1561,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1560,7 +1571,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1574,20 +1585,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1614,8 +1625,11 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1625,7 +1639,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1635,7 +1649,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1645,7 +1659,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1655,7 +1669,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1664,8 +1678,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1675,7 +1692,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1685,7 +1702,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1695,7 +1712,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1705,7 +1722,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1715,7 +1732,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1725,7 +1742,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1742,17 +1759,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1790,7 +1807,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1800,7 +1817,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1812,7 +1829,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1828,7 +1845,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1838,7 +1855,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1848,7 +1865,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1858,7 +1875,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1868,7 +1885,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1878,7 +1895,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1888,7 +1905,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1898,7 +1915,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>

--- a/docs/code line tracker.xlsx
+++ b/docs/code line tracker.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cs673\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="8"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
   <si>
     <t>Code lines tracker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,23 +58,27 @@
   <si>
     <t>Algorithm</t>
   </si>
+  <si>
+    <t>Yike Xue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -88,7 +87,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -128,7 +127,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,14 +435,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -471,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -481,7 +480,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -491,7 +490,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -501,7 +500,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -511,7 +510,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -521,7 +520,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -531,7 +530,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -541,7 +540,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -551,7 +550,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -561,7 +560,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -571,7 +570,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -581,7 +580,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -601,14 +600,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -646,7 +645,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -656,7 +655,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -666,7 +665,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -676,7 +675,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -686,7 +685,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -696,7 +695,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -706,7 +705,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -716,7 +715,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -726,7 +725,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -736,7 +735,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -746,7 +745,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -766,14 +765,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -811,7 +810,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -821,7 +820,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -831,7 +830,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -841,7 +840,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -851,7 +850,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -861,7 +860,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -871,7 +870,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -881,7 +880,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -891,7 +890,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -901,7 +900,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -911,7 +910,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -931,14 +930,14 @@
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -966,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -976,7 +975,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -986,7 +985,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -996,7 +995,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1006,7 +1005,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1016,7 +1015,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1026,7 +1025,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1036,7 +1035,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1046,7 +1045,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1056,7 +1055,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1066,7 +1065,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1076,7 +1075,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1093,17 +1092,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1141,7 +1140,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1151,7 +1150,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1161,7 +1160,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1171,7 +1170,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1181,7 +1180,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1191,7 +1190,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1201,7 +1200,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1211,7 +1210,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1231,7 +1230,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1241,7 +1240,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1258,17 +1257,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1306,7 +1305,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1316,7 +1315,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1326,7 +1325,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1336,17 +1335,21 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1356,7 +1359,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1386,7 +1389,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1426,14 +1429,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1471,7 +1474,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1481,7 +1484,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1491,7 +1494,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1501,7 +1504,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1531,7 +1534,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1541,7 +1544,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1561,7 +1564,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1591,14 +1594,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1639,7 +1643,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1649,7 +1653,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1659,7 +1663,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1669,7 +1673,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1692,7 +1696,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1702,7 +1706,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1712,7 +1716,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1722,7 +1726,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1732,7 +1736,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1742,7 +1746,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1759,25 +1763,28 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1807,17 +1814,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>163</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1829,7 +1838,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>299</v>
       </c>
       <c r="C7" s="1">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -1845,17 +1854,21 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>160</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>78</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1865,7 +1878,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1875,7 +1888,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1885,7 +1898,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1895,7 +1908,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1905,7 +1918,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1915,7 +1928,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>

--- a/docs/code line tracker.xlsx
+++ b/docs/code line tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="8"/>
+    <workbookView xWindow="600" yWindow="132" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Allen" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Jeff" sheetId="4" r:id="rId8"/>
     <sheet name="Yike(Eva)" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,21 +426,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -470,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -480,7 +478,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -490,7 +488,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -500,7 +498,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -510,17 +508,21 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1">
+        <v>54</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -530,7 +532,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -540,7 +542,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -550,7 +552,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -560,7 +562,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -570,7 +572,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -580,7 +582,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -593,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -645,7 +647,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -655,7 +657,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -665,7 +667,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -675,7 +677,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -685,7 +687,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -695,7 +697,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -705,7 +707,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -715,7 +717,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -725,7 +727,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -735,7 +737,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -745,7 +747,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -758,21 +760,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -800,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -810,7 +812,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -820,7 +822,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -830,7 +832,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -840,7 +842,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -850,7 +852,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -860,7 +862,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -870,7 +872,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -880,7 +882,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -890,7 +892,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -900,7 +902,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -910,7 +912,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -923,21 +925,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -965,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -975,7 +977,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -985,7 +987,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -995,7 +997,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1005,7 +1007,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1015,7 +1017,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1025,7 +1027,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1035,7 +1037,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1045,7 +1047,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1055,7 +1057,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1065,7 +1067,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1075,7 +1077,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1088,21 +1090,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1140,7 +1142,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1150,7 +1152,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1160,7 +1162,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1170,7 +1172,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1180,7 +1182,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1190,7 +1192,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1200,7 +1202,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1210,7 +1212,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1220,7 +1222,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1230,7 +1232,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1240,7 +1242,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1253,21 +1255,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1305,7 +1307,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1315,7 +1317,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1325,7 +1327,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1335,7 +1337,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1349,7 +1351,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1359,7 +1361,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1369,7 +1371,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1379,7 +1381,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1399,7 +1401,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1409,7 +1411,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1422,21 +1424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1474,7 +1476,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1484,7 +1486,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1494,7 +1496,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1514,7 +1516,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1524,7 +1526,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1544,7 +1546,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1554,7 +1556,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1564,7 +1566,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1574,7 +1576,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1587,22 +1589,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1653,7 +1655,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1663,7 +1665,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1706,7 +1708,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1716,7 +1718,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1726,7 +1728,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1736,7 +1738,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1746,7 +1748,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1759,21 +1761,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1826,7 +1828,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1838,7 +1840,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1854,7 +1856,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1868,7 +1870,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1878,7 +1880,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1898,7 +1900,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1908,7 +1910,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1928,7 +1930,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>

--- a/docs/code line tracker.xlsx
+++ b/docs/code line tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="132" windowWidth="19392" windowHeight="7608"/>
+    <workbookView xWindow="600" yWindow="140" windowWidth="19400" windowHeight="7600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Allen" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,12 @@
     <sheet name="Jeff" sheetId="4" r:id="rId8"/>
     <sheet name="Yike(Eva)" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,18 +431,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -590,23 +594,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -755,23 +763,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -920,23 +932,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1085,23 +1101,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1250,23 +1270,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1356,8 +1380,12 @@
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -1419,23 +1447,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1584,23 +1616,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1756,23 +1792,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1938,6 +1978,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/code line tracker.xlsx
+++ b/docs/code line tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="140" windowWidth="19400" windowHeight="7600" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="144" windowWidth="19404" windowHeight="7596"/>
   </bookViews>
   <sheets>
     <sheet name="Allen" sheetId="11" r:id="rId1"/>
@@ -71,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,17 +431,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -531,8 +531,12 @@
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -604,17 +608,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -773,17 +777,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -942,17 +946,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1111,17 +1115,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1280,17 +1284,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1457,17 +1461,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1626,17 +1630,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1802,17 +1806,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
